--- a/Stage 1.1/src/Input sheet.xlsx
+++ b/Stage 1.1/src/Input sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanjahoda/CloudStation/CC Screenings : Fotos/0_Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Other\Ali\CC\complex-core-project\Stage 1.1\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A8CA2-2483-EA48-A8C3-7D33E0126B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C37DE86-5EA7-4101-839A-CEF75EC518C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16500" xr2:uid="{1E7911FC-17F2-E94D-829B-803D1729E120}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1E7911FC-17F2-E94D-829B-803D1729E120}"/>
   </bookViews>
   <sheets>
     <sheet name="UEFA CORE" sheetId="1" r:id="rId1"/>
@@ -601,32 +601,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AEAE68-31A9-454D-90EB-7E8EAFCFDB84}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.296875" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" customWidth="1"/>
+    <col min="8" max="9" width="11.796875" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.796875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="15" width="7.83203125" customWidth="1"/>
+    <col min="14" max="15" width="7.796875" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.69921875" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="7.69921875" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
     <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="25" max="25" width="9.796875" customWidth="1"/>
     <col min="26" max="26" width="9.5" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="12.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -658,7 +660,7 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -690,7 +692,7 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -722,7 +724,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -752,7 +754,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -830,7 +832,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -914,7 +916,7 @@
       </c>
       <c r="AB6" s="8"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -1032,7 +1034,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1062,7 +1064,7 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1092,7 +1094,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1122,7 +1124,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1152,7 +1154,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1182,7 +1184,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1212,7 +1214,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1244,7 +1246,7 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1274,7 +1276,7 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1304,7 +1306,7 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1334,7 +1336,7 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1373,72 +1375,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC20CF9C-FAED-6648-918C-2013787E17D8}">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.296875" customWidth="1"/>
+    <col min="3" max="3" width="7.296875" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
     <col min="11" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" customWidth="1"/>
+    <col min="17" max="17" width="10.296875" customWidth="1"/>
     <col min="18" max="18" width="10.5" customWidth="1"/>
     <col min="19" max="19" width="7.5" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.69921875" customWidth="1"/>
     <col min="21" max="21" width="6.5" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="23" width="8.5" customWidth="1"/>
     <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" customWidth="1"/>
+    <col min="25" max="25" width="8.796875" customWidth="1"/>
     <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" customWidth="1"/>
-    <col min="28" max="29" width="8.1640625" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="8.296875" customWidth="1"/>
+    <col min="28" max="29" width="8.19921875" customWidth="1"/>
+    <col min="30" max="30" width="8.296875" customWidth="1"/>
+    <col min="31" max="31" width="8.796875" customWidth="1"/>
+    <col min="32" max="32" width="9.296875" customWidth="1"/>
     <col min="33" max="33" width="8.5" customWidth="1"/>
-    <col min="34" max="34" width="8.83203125" customWidth="1"/>
+    <col min="34" max="34" width="8.796875" customWidth="1"/>
     <col min="35" max="35" width="9" customWidth="1"/>
     <col min="36" max="36" width="9.5" customWidth="1"/>
-    <col min="38" max="38" width="12.6640625" customWidth="1"/>
+    <col min="38" max="38" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1548,7 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1662,7 @@
       </c>
       <c r="AL6" s="4"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1774,57 +1778,57 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="37:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="37:38" x14ac:dyDescent="0.3">
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="37:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="37:38" x14ac:dyDescent="0.3">
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="37:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="37:38" x14ac:dyDescent="0.3">
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
@@ -1837,58 +1841,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33FC55F-E1D2-E84B-938B-A22DED854BEA}">
   <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" customWidth="1"/>
+    <col min="7" max="8" width="9.796875" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.796875" customWidth="1"/>
+    <col min="17" max="17" width="9.69921875" customWidth="1"/>
     <col min="20" max="20" width="8.5" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="8.19921875" customWidth="1"/>
+    <col min="22" max="22" width="7.69921875" customWidth="1"/>
+    <col min="23" max="23" width="8.796875" customWidth="1"/>
     <col min="27" max="27" width="8.5" customWidth="1"/>
-    <col min="28" max="28" width="8.33203125" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" customWidth="1"/>
-    <col min="30" max="30" width="7.1640625" customWidth="1"/>
+    <col min="28" max="28" width="8.296875" customWidth="1"/>
+    <col min="29" max="29" width="7.69921875" customWidth="1"/>
+    <col min="30" max="30" width="7.19921875" customWidth="1"/>
     <col min="31" max="31" width="8.5" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" customWidth="1"/>
-    <col min="33" max="33" width="9.33203125" customWidth="1"/>
+    <col min="32" max="32" width="8.796875" customWidth="1"/>
+    <col min="33" max="33" width="9.296875" customWidth="1"/>
     <col min="34" max="36" width="9.5" customWidth="1"/>
-    <col min="37" max="38" width="8.33203125" customWidth="1"/>
+    <col min="37" max="38" width="8.296875" customWidth="1"/>
     <col min="39" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="9.33203125" customWidth="1"/>
-    <col min="41" max="41" width="8.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="9.296875" customWidth="1"/>
+    <col min="41" max="41" width="8.296875" style="3" customWidth="1"/>
     <col min="42" max="42" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2130,7 +2136,7 @@
       </c>
       <c r="AP6" s="4"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2258,12 +2264,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
